--- a/3DProgramming/MapData/マップデータ作成.xlsx
+++ b/3DProgramming/MapData/マップデータ作成.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\ビックホッケー\3DProgramming\MapData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\TOMITA\3DProgramming\MapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="マニュアル" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="2"/>
@@ -248,20 +248,12 @@
     <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,7 +607,1470 @@
     <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="308">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1598,11 +3053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
@@ -1613,7 +3068,7 @@
     <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +3079,7 @@
       </c>
       <c r="U1" s="27"/>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +3098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1">
+    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +3111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="T4" s="5">
         <v>2</v>
@@ -1665,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1">
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +3131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I7" s="24"/>
       <c r="T7" s="8">
         <v>5</v>
@@ -1698,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1">
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
@@ -1709,7 +3164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1">
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>17</v>
       </c>
@@ -1720,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1">
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T11" s="14">
         <v>9</v>
       </c>
@@ -1739,7 +3194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1">
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1750,74 +3205,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1"/>
-    <row r="14" spans="1:21" ht="30" customHeight="1"/>
-    <row r="15" spans="1:21" ht="30" customHeight="1"/>
-    <row r="16" spans="1:21" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
-    <row r="26" ht="30" customHeight="1"/>
-    <row r="27" ht="30" customHeight="1"/>
-    <row r="28" ht="30" customHeight="1"/>
-    <row r="29" ht="30" customHeight="1"/>
-    <row r="30" ht="30" customHeight="1"/>
-    <row r="31" ht="30" customHeight="1"/>
-    <row r="32" ht="30" customHeight="1"/>
-    <row r="33" ht="30" customHeight="1"/>
-    <row r="34" ht="30" customHeight="1"/>
-    <row r="35" ht="30" customHeight="1"/>
-    <row r="36" ht="30" customHeight="1"/>
-    <row r="37" ht="30" customHeight="1"/>
-    <row r="38" ht="30" customHeight="1"/>
-    <row r="39" ht="30" customHeight="1"/>
-    <row r="40" ht="30" customHeight="1"/>
-    <row r="41" ht="30" customHeight="1"/>
-    <row r="42" ht="30" customHeight="1"/>
-    <row r="43" ht="30" customHeight="1"/>
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="T2:U12">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1831,10 +3286,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -1842,7 +3297,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1889,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1936,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1983,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2030,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2053,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -2077,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2097,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -2124,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2147,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -2171,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2218,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -2265,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2312,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2359,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2406,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2453,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -2500,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -2547,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -2594,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -2641,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -2688,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -2735,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -2782,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -2829,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -2845,8 +4300,8 @@
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>23</v>
+      <c r="F22" s="2">
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -2857,8 +4312,8 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
+      <c r="J22" s="2">
+        <v>0</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2876,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -2923,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -2970,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -3017,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -3064,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -3113,38 +4568,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A16:XFD1048576 K11:P12 K13:XFD15 A11:J15 A1:P10 Q1:XFD11 U12:XFD12">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+  <conditionalFormatting sqref="K11:P12 K13:XFD15 A11:J15 Q1:XFD11 U12:XFD12 A1:P10 A16:XFD1048576">
+    <cfRule type="cellIs" dxfId="296" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3158,10 +4613,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -3169,7 +4624,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -3216,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3263,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -3310,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -3357,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -3365,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3395,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -3404,12 +4859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -3445,18 +4900,18 @@
         <v>23</v>
       </c>
       <c r="N6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -3492,18 +4947,18 @@
         <v>23</v>
       </c>
       <c r="N7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -3539,18 +4994,18 @@
         <v>23</v>
       </c>
       <c r="N8" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -3586,18 +5041,18 @@
         <v>23</v>
       </c>
       <c r="N9" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -3633,18 +5088,18 @@
         <v>23</v>
       </c>
       <c r="N10" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -3680,18 +5135,18 @@
         <v>23</v>
       </c>
       <c r="N11" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -3727,18 +5182,18 @@
         <v>23</v>
       </c>
       <c r="N12" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -3774,18 +5229,18 @@
         <v>23</v>
       </c>
       <c r="N13" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -3821,18 +5276,18 @@
         <v>23</v>
       </c>
       <c r="N14" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -3868,18 +5323,18 @@
         <v>23</v>
       </c>
       <c r="N15" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -3915,18 +5370,18 @@
         <v>23</v>
       </c>
       <c r="N16" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -3962,18 +5417,18 @@
         <v>23</v>
       </c>
       <c r="N17" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -4009,18 +5464,18 @@
         <v>23</v>
       </c>
       <c r="N18" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -4056,18 +5511,18 @@
         <v>23</v>
       </c>
       <c r="N19" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -4103,18 +5558,18 @@
         <v>23</v>
       </c>
       <c r="N20" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -4150,18 +5605,18 @@
         <v>23</v>
       </c>
       <c r="N21" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -4197,13 +5652,13 @@
         <v>23</v>
       </c>
       <c r="N22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -4211,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -4241,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -4250,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -4297,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -4344,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -4391,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -4440,73 +5895,73 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A26:XFD1048576 A1:P4 Q1:XFD11 U12:XFD12 O5:P12 A24:M25 O13:XFD25 N5:N25 A5:L23">
-    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
+  <conditionalFormatting sqref="A26:XFD1048576 A1:P4 Q1:XFD11 U12:XFD12 O5:P12 A25:M25 O13:XFD25 A5:L5 C6:L23 C24:M24 A6:B24 N5:N25">
+    <cfRule type="cellIs" dxfId="285" priority="12" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M23">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4520,10 +5975,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -4531,7 +5986,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -4578,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4625,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -4672,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -4719,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -4766,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -4813,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4830,16 +6285,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>9</v>
@@ -4860,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -4876,17 +6331,17 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>26</v>
@@ -4907,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -4924,16 +6379,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>9</v>
@@ -4954,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -5001,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -5048,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -5095,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -5142,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -5189,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -5236,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -5283,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -5330,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -5377,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -5397,17 +6852,17 @@
         <v>9</v>
       </c>
       <c r="G19" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>9</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
@@ -5424,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -5443,18 +6898,18 @@
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
@@ -5471,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -5491,17 +6946,17 @@
         <v>9</v>
       </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>9</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
@@ -5518,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -5565,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -5612,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -5659,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -5706,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -5753,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -5802,38 +7257,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="K11:P11 Q1:XFD11 U12:XFD12 N12:P12 K12:L14 A16:XFD1048576 A1:P10 A11:J14 A15:L15 N13:XFD15 M12:M15">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+  <conditionalFormatting sqref="K11:P11 Q1:XFD11 U12:XFD12 N12:P12 K12:L14 A11:J14 A15:L15 N13:XFD15 M12:M15 A1:P10 A16:XFD1048576">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5846,11 +7301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -5858,7 +7313,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -5905,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5952,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -5999,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -6034,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -6046,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -6078,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -6093,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -6128,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -6140,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -6187,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -6234,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -6281,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -6328,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -6375,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -6422,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -6469,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -6516,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -6563,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -6610,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -6657,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -6704,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6751,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -6798,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -6845,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -6892,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -6939,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -6986,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -7033,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -7080,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -7129,143 +8584,143 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A26:XFD1048576 A1:P3 Q1:XFD11 U12:XFD12 J4:P11 N13:XFD14 N12:P12 A4:F11 H4:H11 H15:H24 J15:XFD24 A12:K13 A14:H14 J14:K14 A15:F25 H25:XFD25 I4:I6 G4:G6 I14:I21 G15:G21">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+  <conditionalFormatting sqref="A26:XFD1048576 A1:P3 Q1:XFD11 U12:XFD12 N13:XFD14 N12:P12 A4:F11 H4:H11 H15:H24 J15:XFD24 A12:K13 A14:H14 J14:K14 A15:F25 H25:XFD25 I4:I6 G4:G6 I14:I21 G15:G21 J4:P11">
+    <cfRule type="cellIs" dxfId="263" priority="34" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="35" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="37" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="39" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="40" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="41" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G11">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="24" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="25" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="26" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I11">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3DProgramming/MapData/マップデータ作成.xlsx
+++ b/3DProgramming/MapData/マップデータ作成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="マニュアル" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="2"/>
@@ -226,6 +226,14 @@
     <rPh sb="1" eb="2">
       <t>ハシ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -607,315 +615,7 @@
     <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="308">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="264">
     <dxf>
       <fill>
         <patternFill>
@@ -3053,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3242,37 +2942,37 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="T2:U12">
-    <cfRule type="cellIs" dxfId="307" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3286,7 +2986,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P20" sqref="P20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3317,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2">
         <v>0</v>
@@ -3367,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -3414,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -4448,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -4495,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -4539,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -4569,37 +4269,37 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="K11:P12 K13:XFD15 A11:J15 Q1:XFD11 U12:XFD12 A1:P10 A16:XFD1048576">
-    <cfRule type="cellIs" dxfId="296" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4612,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4644,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2">
         <v>0</v>
@@ -4694,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -4741,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -4866,11 +4566,11 @@
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -4894,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>9</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -4917,7 +4617,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -4926,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -4941,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>23</v>
@@ -4973,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -5020,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -5055,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
@@ -5085,7 +4785,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -5102,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -5129,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -5148,11 +4848,11 @@
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
+      <c r="C12" s="2">
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -5164,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -5176,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>8</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -5195,11 +4895,11 @@
       <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+      <c r="C13" s="2">
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -5208,13 +4908,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -5223,10 +4923,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>8</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -5242,11 +4942,11 @@
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
+      <c r="C14" s="2">
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -5255,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -5270,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>8</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -5289,11 +4989,11 @@
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
+      <c r="C15" s="2">
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -5302,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -5317,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -5336,11 +5036,11 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
+      <c r="C16" s="2">
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -5352,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -5364,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>8</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -5384,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -5411,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -5431,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>8</v>
@@ -5461,7 +5161,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -5490,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -5537,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -5575,7 +5275,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -5584,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -5599,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>23</v>
@@ -5618,11 +5318,11 @@
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
+      <c r="C22" s="2">
+        <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -5646,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>9</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5775,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -5822,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -5866,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -5895,73 +5595,73 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A26:XFD1048576 A1:P4 Q1:XFD11 U12:XFD12 O5:P12 A25:M25 O13:XFD25 A5:L5 C6:L23 C24:M24 A6:B24 N5:N25">
-    <cfRule type="cellIs" dxfId="285" priority="12" operator="equal">
+  <conditionalFormatting sqref="A26:XFD1048576 Q1:XFD11 U12:XFD12 O5:P8 A25:M25 O20:XFD25 A5:L5 C24:M24 A6:B24 N5 A1:P4 N7:N8 C6:N6 N23:N25 C23:L23 C22:N22 N20:N21 P13:XFD19 P9:P12 N9:O19 C7:L17 M10:M17 C19:L21 C18:M18">
+    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M23">
-    <cfRule type="cellIs" dxfId="274" priority="1" operator="equal">
+  <conditionalFormatting sqref="M5 M23 M7:M9 M19:M21">
+    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5975,7 +5675,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6006,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2">
         <v>0</v>
@@ -6056,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -6103,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -7137,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -7184,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -7228,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -7258,37 +6958,37 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="K11:P11 Q1:XFD11 U12:XFD12 N12:P12 K12:L14 A11:J14 A15:L15 N13:XFD15 M12:M15 A1:P10 A16:XFD1048576">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8585,142 +8285,142 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A26:XFD1048576 A1:P3 Q1:XFD11 U12:XFD12 N13:XFD14 N12:P12 A4:F11 H4:H11 H15:H24 J15:XFD24 A12:K13 A14:H14 J14:K14 A15:F25 H25:XFD25 I4:I6 G4:G6 I14:I21 G15:G21 J4:P11">
-    <cfRule type="cellIs" dxfId="263" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="34" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="35" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="37" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="39" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="40" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="41" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G11">
-    <cfRule type="cellIs" dxfId="252" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="24" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="25" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="26" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I11">
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3DProgramming/MapData/マップデータ作成.xlsx
+++ b/3DProgramming/MapData/マップデータ作成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="マニュアル" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,1162 +615,7 @@
     <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="264">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -2757,7 +1602,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
@@ -2768,7 +1613,7 @@
     <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +1624,7 @@
       </c>
       <c r="U1" s="27"/>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="30" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
@@ -2798,7 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
@@ -2811,7 +1656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="24"/>
       <c r="T4" s="5">
         <v>2</v>
@@ -2820,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="30" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="I7" s="24"/>
       <c r="T7" s="8">
         <v>5</v>
@@ -2853,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="30" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
@@ -2864,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="30" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>17</v>
       </c>
@@ -2875,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>19</v>
       </c>
@@ -2886,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="30" customHeight="1">
       <c r="T11" s="14">
         <v>9</v>
       </c>
@@ -2894,7 +1739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="30" customHeight="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2905,74 +1750,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:21" ht="30" customHeight="1"/>
+    <row r="14" spans="1:21" ht="30" customHeight="1"/>
+    <row r="15" spans="1:21" ht="30" customHeight="1"/>
+    <row r="16" spans="1:21" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="T2:U12">
-    <cfRule type="cellIs" dxfId="263" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2985,11 +1830,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -2997,7 +1842,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -3014,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2">
         <v>6</v>
@@ -3026,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K1" s="2">
         <v>0</v>
@@ -3044,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3091,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -3138,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -3185,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -3232,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -3279,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -3326,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -3373,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -3420,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -3467,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3514,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -3561,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -3608,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3655,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3702,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3749,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -3796,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -3843,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -3890,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -3937,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -3984,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -4031,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -4078,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -4125,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -4172,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -4219,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -4236,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2">
         <v>7</v>
@@ -4248,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4269,37 +3114,37 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="K11:P12 K13:XFD15 A11:J15 Q1:XFD11 U12:XFD12 A1:P10 A16:XFD1048576">
-    <cfRule type="cellIs" dxfId="252" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4312,11 +3157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -4324,7 +3169,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -4341,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2">
         <v>6</v>
@@ -4353,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K1" s="2">
         <v>0</v>
@@ -4371,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4418,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -4465,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -4512,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -4559,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -4606,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4653,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -4700,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -4747,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -4794,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -4841,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -4888,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -4935,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -4982,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -5029,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -5076,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -5123,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -5170,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -5217,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -5264,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -5311,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -5358,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -5405,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -5452,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -5499,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -5546,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -5563,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2">
         <v>7</v>
@@ -5575,7 +4420,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -5596,72 +4441,72 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A26:XFD1048576 Q1:XFD11 U12:XFD12 O5:P8 A25:M25 O20:XFD25 A5:L5 C24:M24 A6:B24 N5 A1:P4 N7:N8 C6:N6 N23:N25 C23:L23 C22:N22 N20:N21 P13:XFD19 P9:P12 N9:O19 C7:L17 M10:M17 C19:L21 C18:M18">
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5 M23 M7:M9 M19:M21">
-    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5675,10 +4520,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -5686,7 +4531,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -5703,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2">
         <v>6</v>
@@ -5715,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K1" s="2">
         <v>0</v>
@@ -5733,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5780,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -5827,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -5874,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -5921,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -5968,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -6015,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -6062,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -6109,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -6156,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -6203,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -6250,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -6297,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -6344,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -6391,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -6438,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -6485,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -6532,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6579,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -6626,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -6673,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -6720,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -6767,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -6814,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -6861,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -6908,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -6925,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2">
         <v>7</v>
@@ -6937,7 +5782,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -6958,37 +5803,37 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="K11:P11 Q1:XFD11 U12:XFD12 N12:P12 K12:L14 A11:J14 A15:L15 N13:XFD15 M12:M15 A1:P10 A16:XFD1048576">
-    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7005,7 +5850,7 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="17" width="5.625" style="1"/>
     <col min="18" max="18" width="25.75" style="1" bestFit="1" customWidth="1"/>
@@ -7013,7 +5858,7 @@
     <col min="20" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -7060,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7107,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -7154,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -7201,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -7248,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -7295,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -7342,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -7389,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -7436,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -7483,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -7530,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -7577,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -7624,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -7671,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -7718,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -7765,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -7812,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -7859,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -7906,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -7953,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -8000,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -8047,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -8094,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -8141,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -8188,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -8235,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -8285,142 +7130,142 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A26:XFD1048576 A1:P3 Q1:XFD11 U12:XFD12 N13:XFD14 N12:P12 A4:F11 H4:H11 H15:H24 J15:XFD24 A12:K13 A14:H14 J14:K14 A15:F25 H25:XFD25 I4:I6 G4:G6 I14:I21 G15:G21 J4:P11">
-    <cfRule type="cellIs" dxfId="208" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G11">
-    <cfRule type="cellIs" dxfId="197" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I11">
-    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
